--- a/tests/usdm4/test_files/expander/example_study.xlsx
+++ b/tests/usdm4/test_files/expander/example_study.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm4/tests/usdm4/test_files/expander/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDD9C32-9143-FD4E-8658-305C78505746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111B6BFD-28C6-1D4D-BDF7-70613ABE9DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" firstSheet="6" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" firstSheet="6" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -6872,9 +6872,6 @@
     <t>timeline</t>
   </si>
   <si>
-    <t>Extra</t>
-  </si>
-  <si>
     <t>adverseEventTimeline, earlyTerminationTimeline, vsBloodPressure, extra</t>
   </si>
   <si>
@@ -6936,6 +6933,9 @@
   </si>
   <si>
     <t>Questionaires</t>
+  </si>
+  <si>
+    <t>extra</t>
   </si>
 </sst>
 </file>
@@ -7297,16 +7297,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -8701,8 +8701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9140,7 +9140,7 @@
         <v>1558</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1559</v>
+        <v>1580</v>
       </c>
       <c r="K9" s="54"/>
       <c r="M9" s="54"/>
@@ -10247,7 +10247,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="C32" s="4"/>
       <c r="F32" s="2"/>
@@ -10546,7 +10546,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="26"/>
@@ -10615,7 +10615,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="4"/>
@@ -12886,19 +12886,19 @@
         <v>73</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>215</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1561</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1562</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -12906,7 +12906,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>31</v>
@@ -12924,13 +12924,13 @@
         <v>232</v>
       </c>
       <c r="D3" s="40" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E3" s="41" t="s">
         <v>1564</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="F3" s="41" t="s">
         <v>1565</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>1566</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -12956,10 +12956,10 @@
         <v>284</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>1562</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1563</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>300</v>
@@ -13837,49 +13837,49 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>268</v>
@@ -13887,25 +13887,25 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>268</v>
@@ -21831,7 +21831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AA03AF-8646-874D-935F-A73550A0FA0C}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:F12"/>
     </sheetView>
   </sheetViews>
@@ -21847,169 +21847,169 @@
       <c r="A1" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="73" t="s">
         <v>517</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>1539</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="70" t="s">
         <v>410</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="70" t="s">
         <v>511</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="70" t="s">
         <v>513</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
     </row>
     <row r="12" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="73" t="s">
-        <v>1560</v>
-      </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
+      <c r="B12" s="71" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -22101,6 +22101,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B13:F13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
@@ -22110,11 +22115,6 @@
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B13:F13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22179,15 +22179,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -22388,6 +22379,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -22400,14 +22400,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22422,6 +22414,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/usdm4/test_files/expander/example_study.xlsx
+++ b/tests/usdm4/test_files/expander/example_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm4/tests/usdm4/test_files/expander/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111B6BFD-28C6-1D4D-BDF7-70613ABE9DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC83318-37F9-BF4F-A5BC-AD264ABFCA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" firstSheet="6" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" firstSheet="17" activeTab="18" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -30,23 +30,24 @@
     <sheet name="earlyTerminationTimeline" sheetId="23" r:id="rId15"/>
     <sheet name="vsBloodPressure" sheetId="24" r:id="rId16"/>
     <sheet name="extra" sheetId="35" r:id="rId17"/>
-    <sheet name="studyDesignTiming" sheetId="18" r:id="rId18"/>
-    <sheet name="studyDesignConditions" sheetId="27" r:id="rId19"/>
-    <sheet name="studyDesignActivities" sheetId="21" r:id="rId20"/>
-    <sheet name="studyDesignInterventions" sheetId="25" r:id="rId21"/>
-    <sheet name="studyDesignIndications" sheetId="6" r:id="rId22"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId23"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId24"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId25"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId26"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId27"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId28"/>
-    <sheet name="dictionaries" sheetId="20" r:id="rId29"/>
-    <sheet name="roles" sheetId="31" r:id="rId30"/>
-    <sheet name="lillyFormat" sheetId="16" r:id="rId31"/>
-    <sheet name="m11Format" sheetId="28" r:id="rId32"/>
-    <sheet name="documentContent" sheetId="29" r:id="rId33"/>
-    <sheet name="configuration" sheetId="10" r:id="rId34"/>
+    <sheet name="dayCycle" sheetId="36" r:id="rId18"/>
+    <sheet name="studyDesignTiming" sheetId="18" r:id="rId19"/>
+    <sheet name="studyDesignConditions" sheetId="27" r:id="rId20"/>
+    <sheet name="studyDesignActivities" sheetId="21" r:id="rId21"/>
+    <sheet name="studyDesignInterventions" sheetId="25" r:id="rId22"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId23"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId24"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId25"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId26"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId27"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId28"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId29"/>
+    <sheet name="dictionaries" sheetId="20" r:id="rId30"/>
+    <sheet name="roles" sheetId="31" r:id="rId31"/>
+    <sheet name="lillyFormat" sheetId="16" r:id="rId32"/>
+    <sheet name="m11Format" sheetId="28" r:id="rId33"/>
+    <sheet name="documentContent" sheetId="29" r:id="rId34"/>
+    <sheet name="configuration" sheetId="10" r:id="rId35"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="1581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3441" uniqueCount="1606">
   <si>
     <t>Screening</t>
   </si>
@@ -6872,9 +6873,6 @@
     <t>timeline</t>
   </si>
   <si>
-    <t>adverseEventTimeline, earlyTerminationTimeline, vsBloodPressure, extra</t>
-  </si>
-  <si>
     <t>EXTRA_1</t>
   </si>
   <si>
@@ -6936,6 +6934,84 @@
   </si>
   <si>
     <t>extra</t>
+  </si>
+  <si>
+    <t>Diary</t>
+  </si>
+  <si>
+    <t>DIARY_1</t>
+  </si>
+  <si>
+    <t>DIARY_2</t>
+  </si>
+  <si>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t>DIARY_3</t>
+  </si>
+  <si>
+    <t>DIARY_4</t>
+  </si>
+  <si>
+    <t>DIARY_5</t>
+  </si>
+  <si>
+    <t>TIM28</t>
+  </si>
+  <si>
+    <t>TIM29</t>
+  </si>
+  <si>
+    <t>TIM30</t>
+  </si>
+  <si>
+    <t>TIM31</t>
+  </si>
+  <si>
+    <t>TIM32</t>
+  </si>
+  <si>
+    <t>Diary 1</t>
+  </si>
+  <si>
+    <t>Diary 2</t>
+  </si>
+  <si>
+    <t>Diary 3</t>
+  </si>
+  <si>
+    <t>Diary 4</t>
+  </si>
+  <si>
+    <t>Diary 5</t>
+  </si>
+  <si>
+    <t>0 Days</t>
+  </si>
+  <si>
+    <t>adverseEventTimeline, earlyTerminationTimeline, vsBloodPressure, extra, dayCycle</t>
+  </si>
+  <si>
+    <t>dayCycle</t>
+  </si>
+  <si>
+    <t>DIARY_2: day &lt; 30</t>
+  </si>
+  <si>
+    <t>SOG Diary</t>
+  </si>
+  <si>
+    <t>PR: SOG Diary</t>
+  </si>
+  <si>
+    <t>Diary Timeline</t>
+  </si>
+  <si>
+    <t>Wait a day</t>
+  </si>
+  <si>
+    <t>Exit</t>
   </si>
 </sst>
 </file>
@@ -7099,7 +7175,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -7307,6 +7383,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -8701,8 +8780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9139,8 +9218,11 @@
       <c r="C9" s="14" t="s">
         <v>1558</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>1599</v>
+      </c>
       <c r="H9" s="1" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="K9" s="54"/>
       <c r="M9" s="54"/>
@@ -10247,7 +10329,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="C32" s="4"/>
       <c r="F32" s="2"/>
@@ -10546,7 +10628,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="26"/>
@@ -10615,7 +10697,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="4"/>
@@ -12886,19 +12968,19 @@
         <v>73</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>215</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1560</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1561</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1562</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -12906,7 +12988,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>31</v>
@@ -12924,13 +13006,13 @@
         <v>232</v>
       </c>
       <c r="D3" s="40" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E3" s="41" t="s">
         <v>1563</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="F3" s="41" t="s">
         <v>1564</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>1565</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -12956,10 +13038,10 @@
         <v>284</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>1561</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1562</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>300</v>
@@ -13133,11 +13215,314 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FF706F-AE10-6E4B-8EAD-DB97659AF4F7}">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="16" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>1604</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>1583</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1583</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B8B105-0AE3-CA42-845E-0FC79C427790}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13837,49 +14222,49 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>268</v>
@@ -13887,283 +14272,160 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>268</v>
       </c>
     </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8C14B1-8C62-2C45-8CB1-1E9EDDA367B1}">
-  <dimension ref="A1:F24"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="51" style="25" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>514</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
-        <v>833</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>835</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>834</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>836</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>288</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14264,6 +14526,257 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8C14B1-8C62-2C45-8CB1-1E9EDDA367B1}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="51" style="25" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="48" t="s">
+        <v>833</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>835</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>834</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>836</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4305555-B5C2-8349-A6D3-AA57DAC0BCD5}">
   <dimension ref="A1:C37"/>
   <sheetViews>
@@ -14582,7 +15095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807AE9D8-8C9D-644F-8552-6E66F0115CF1}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -14768,7 +15281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46FA45D-9570-C643-AC7B-6310BD62121C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -14831,7 +15344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2F56-38DA-1440-8447-6C36029D01F5}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -14912,7 +15425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:O22"/>
   <sheetViews>
@@ -15369,7 +15882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D036654E-7FF8-D440-BC0A-D74BC57BB3C9}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -15460,12 +15973,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29E6393-3A18-464C-A40D-B41879707264}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15631,13 +16144,27 @@
         <v>486</v>
       </c>
     </row>
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>486</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB4E9D5-B601-284A-9651-0AA604C2B9D1}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -15981,7 +16508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FA5DC6-70BE-E845-A085-20526138A835}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -16122,143 +16649,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989384DC-1C54-514A-8A1E-ADD84D891BA4}">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="64.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E3" t="s">
-        <v>325</v>
-      </c>
-      <c r="F3" t="s">
-        <v>326</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E4" t="s">
-        <v>325</v>
-      </c>
-      <c r="F4" t="s">
-        <v>326</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>418</v>
-      </c>
-      <c r="B5" t="s">
-        <v>419</v>
-      </c>
-      <c r="C5" t="s">
-        <v>420</v>
-      </c>
-      <c r="D5" t="s">
-        <v>421</v>
-      </c>
-      <c r="E5" t="s">
-        <v>299</v>
-      </c>
-      <c r="F5" t="s">
-        <v>422</v>
-      </c>
-      <c r="G5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51" t="s">
-        <v>841</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>299</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>423</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>232</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -16312,6 +16702,143 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989384DC-1C54-514A-8A1E-ADD84D891BA4}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="64.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5" t="s">
+        <v>422</v>
+      </c>
+      <c r="G5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51" t="s">
+        <v>841</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>423</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666D5CD6-DF98-6447-9150-7AA4E8F8C9F3}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -16376,7 +16903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:F77"/>
   <sheetViews>
@@ -17939,7 +18466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E75AA97-4922-F248-8DDB-BFD2366D5770}">
   <dimension ref="A1:F156"/>
   <sheetViews>
@@ -20789,7 +21316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3AB5D9-1FE9-BF4A-BE82-FD043736B8E5}">
   <dimension ref="A1:B86"/>
   <sheetViews>
@@ -21485,7 +22012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED6534B-B4C9-924A-BB14-180C2C37C6F1}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -21831,8 +22358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AA03AF-8646-874D-935F-A73550A0FA0C}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:F12"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21980,7 +22507,7 @@
         <v>72</v>
       </c>
       <c r="B12" s="71" t="s">
-        <v>1559</v>
+        <v>1598</v>
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="71"/>

--- a/tests/usdm4/test_files/expander/example_study.xlsx
+++ b/tests/usdm4/test_files/expander/example_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm4/tests/usdm4/test_files/expander/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC83318-37F9-BF4F-A5BC-AD264ABFCA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EF2080-C07E-CA49-8FCF-1B17E6FB72E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" firstSheet="17" activeTab="18" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" firstSheet="17" activeTab="17" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -13218,7 +13218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FF706F-AE10-6E4B-8EAD-DB97659AF4F7}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -13521,8 +13521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B8B105-0AE3-CA42-845E-0FC79C427790}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A21" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tests/usdm4/test_files/expander/example_study.xlsx
+++ b/tests/usdm4/test_files/expander/example_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm4/tests/usdm4/test_files/expander/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EF2080-C07E-CA49-8FCF-1B17E6FB72E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AF785D-2CC6-2340-BFC0-0F0EC04F5991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" firstSheet="17" activeTab="17" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" firstSheet="22" activeTab="26" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3441" uniqueCount="1606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3446" uniqueCount="1606">
   <si>
     <t>Screening</t>
   </si>
@@ -1387,12 +1387,6 @@
     <t>PR_STAND</t>
   </si>
   <si>
-    <t>PR: PR_SUPINE</t>
-  </si>
-  <si>
-    <t>PR: PR_STAND</t>
-  </si>
-  <si>
     <t>PR:PR1</t>
   </si>
   <si>
@@ -1507,16 +1501,10 @@
     <t>Vital signs after 3 min standing</t>
   </si>
   <si>
-    <t xml:space="preserve">Supine </t>
-  </si>
-  <si>
     <t>Vital Signs Supine</t>
   </si>
   <si>
     <t>BC:Systolic blood pressure, BC:Diastolic blood pressure, BC: Heart Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stand </t>
   </si>
   <si>
     <t>Vital Signs Standing</t>
@@ -7013,6 +7001,18 @@
   <si>
     <t>Exit</t>
   </si>
+  <si>
+    <t>PR:Systolic blood pressure, PR:Diastolic blood pressure, PR: Heart Rate</t>
+  </si>
+  <si>
+    <t>Systolic blood pressure</t>
+  </si>
+  <si>
+    <t>Diastolic blood pressure</t>
+  </si>
+  <si>
+    <t>Heart Rate</t>
+  </si>
 </sst>
 </file>
 
@@ -7372,11 +7372,8 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -7384,8 +7381,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -7797,7 +7797,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
@@ -7912,7 +7912,7 @@
         <v>235</v>
       </c>
       <c r="B14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C14" t="s">
         <v>236</v>
@@ -7935,7 +7935,7 @@
         <v>239</v>
       </c>
       <c r="B15" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C15" t="s">
         <v>240</v>
@@ -7955,13 +7955,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="C16" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="D16" t="s">
         <v>241</v>
@@ -8032,13 +8032,13 @@
         <v>317</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>318</v>
@@ -8052,13 +8052,13 @@
         <v>424</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>318</v>
@@ -8072,13 +8072,13 @@
         <v>425</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>418</v>
@@ -8089,16 +8089,16 @@
         <v>316</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F5" s="50" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="G5" s="51" t="s">
         <v>418</v>
@@ -8109,16 +8109,16 @@
         <v>316</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -8126,16 +8126,16 @@
         <v>316</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -8143,16 +8143,16 @@
         <v>316</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -8160,16 +8160,16 @@
         <v>316</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -8180,13 +8180,13 @@
         <v>427</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -8197,13 +8197,13 @@
         <v>219</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -8214,13 +8214,13 @@
         <v>220</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="204" x14ac:dyDescent="0.2">
@@ -8231,13 +8231,13 @@
         <v>221</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8248,13 +8248,13 @@
         <v>222</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -8265,13 +8265,13 @@
         <v>223</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -8282,13 +8282,13 @@
         <v>224</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="170" x14ac:dyDescent="0.2">
@@ -8296,16 +8296,16 @@
         <v>426</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="153" x14ac:dyDescent="0.2">
@@ -8313,16 +8313,16 @@
         <v>426</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="153" x14ac:dyDescent="0.2">
@@ -8330,16 +8330,16 @@
         <v>426</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="136" x14ac:dyDescent="0.2">
@@ -8347,16 +8347,16 @@
         <v>426</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -8364,16 +8364,16 @@
         <v>426</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -8381,16 +8381,16 @@
         <v>426</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -8398,16 +8398,16 @@
         <v>426</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8415,16 +8415,16 @@
         <v>426</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -8432,16 +8432,16 @@
         <v>426</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -8449,16 +8449,16 @@
         <v>426</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -8466,16 +8466,16 @@
         <v>426</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -8483,16 +8483,16 @@
         <v>426</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
@@ -8500,16 +8500,16 @@
         <v>426</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -8517,16 +8517,16 @@
         <v>426</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -8534,16 +8534,16 @@
         <v>426</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
@@ -8551,16 +8551,16 @@
         <v>426</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
     </row>
   </sheetData>
@@ -9216,13 +9216,13 @@
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="14" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="K9" s="54"/>
       <c r="M9" s="54"/>
@@ -9426,7 +9426,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -9944,7 +9944,7 @@
         <v>362</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>1</v>
@@ -10221,7 +10221,7 @@
         <v>155</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -10329,7 +10329,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="C32" s="4"/>
       <c r="F32" s="2"/>
@@ -10408,7 +10408,7 @@
         <v>13</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>1</v>
@@ -10628,7 +10628,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="26"/>
@@ -10697,7 +10697,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="4"/>
@@ -12599,10 +12599,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A98DD9-8159-D74D-B42C-CCC2F4D10811}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12618,28 +12618,28 @@
         <v>73</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>215</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -12647,7 +12647,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>31</v>
@@ -12659,7 +12659,7 @@
         <v>77</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>232</v>
@@ -12668,19 +12668,19 @@
         <v>428</v>
       </c>
       <c r="E3" s="41" t="s">
+        <v>471</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>472</v>
+      </c>
+      <c r="G3" s="41" t="s">
         <v>473</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="H3" s="41" t="s">
         <v>474</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="I3" s="41" t="s">
         <v>475</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>476</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -12715,19 +12715,19 @@
         <v>284</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>472</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>402</v>
@@ -12765,59 +12765,43 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="D10" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="E11" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
@@ -12828,7 +12812,6 @@
       <c r="A15" s="4"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
@@ -12853,17 +12836,19 @@
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
@@ -12875,23 +12860,23 @@
       <c r="A24" s="4"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
@@ -12900,7 +12885,7 @@
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
       <c r="D29" s="2"/>
@@ -12928,18 +12913,6 @@
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
       <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12968,19 +12941,19 @@
         <v>73</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>215</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -12988,7 +12961,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>31</v>
@@ -13000,19 +12973,19 @@
         <v>77</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>232</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -13038,10 +13011,10 @@
         <v>284</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>300</v>
@@ -13082,10 +13055,10 @@
     <row r="10" spans="1:6" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -13218,7 +13191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FF706F-AE10-6E4B-8EAD-DB97659AF4F7}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -13236,25 +13209,25 @@
         <v>73</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>215</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1581</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1582</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1584</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1585</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1586</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -13262,13 +13235,13 @@
         <v>75</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="G2" s="74"/>
+      <c r="G2" s="70"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -13276,25 +13249,25 @@
         <v>77</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>232</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -13313,7 +13286,7 @@
         <v>299</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>299</v>
@@ -13326,16 +13299,16 @@
         <v>284</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>1582</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1584</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>1585</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>1586</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>300</v>
@@ -13348,7 +13321,7 @@
         <v>285</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -13379,10 +13352,10 @@
     <row r="10" spans="1:8" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>1</v>
@@ -14065,19 +14038,19 @@
         <v>431</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>430</v>
@@ -14090,19 +14063,19 @@
         <v>432</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>429</v>
@@ -14117,22 +14090,22 @@
         <v>433</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>435</v>
@@ -14144,22 +14117,22 @@
         <v>434</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>268</v>
@@ -14168,25 +14141,25 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>435</v>
@@ -14195,25 +14168,25 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>268</v>
@@ -14222,49 +14195,49 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>268</v>
@@ -14272,25 +14245,25 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>268</v>
@@ -14298,46 +14271,46 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>430</v>
@@ -14348,22 +14321,22 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>278</v>
@@ -14374,22 +14347,22 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>430</v>
@@ -14400,22 +14373,22 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>430</v>
@@ -14473,7 +14446,7 @@
         <v>249</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="I1" s="36" t="s">
         <v>250</v>
@@ -14482,18 +14455,18 @@
         <v>233</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -14511,13 +14484,13 @@
         <v>243</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
     </row>
   </sheetData>
@@ -14557,24 +14530,24 @@
         <v>217</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>288</v>
@@ -14585,22 +14558,22 @@
     </row>
     <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E3" s="48" t="s">
         <v>288</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -14815,7 +14788,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -14839,7 +14812,7 @@
         <v>423</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -15060,34 +15033,34 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C34" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C35" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C36" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C37" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -15140,140 +15113,140 @@
         <v>32</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>458</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>464</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>1512</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>1513</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="I2" s="69" t="s">
+        <v>1515</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>1523</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1523</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="E2" s="68" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F2" s="68" t="s">
+      <c r="L2" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>1516</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="N2" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>1517</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="P2" s="5" t="s">
+        <v>1527</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="R2" s="69" t="s">
         <v>1518</v>
       </c>
-      <c r="I2" s="69" t="s">
-        <v>1519</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="S2" s="3" t="s">
         <v>1527</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>1529</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>1520</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>1529</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>1521</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>1531</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="R2" s="69" t="s">
-        <v>1522</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="J3" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>1524</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>1526</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>1528</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>1530</v>
-      </c>
       <c r="M3" s="3" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="R3" s="69" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
     </row>
   </sheetData>
@@ -15366,7 +15339,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>215</v>
@@ -15378,30 +15351,30 @@
         <v>232</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>34</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>326</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -15410,13 +15383,13 @@
         <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -15497,7 +15470,7 @@
         <v>337</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>42</v>
@@ -15542,7 +15515,7 @@
         <v>339</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>54</v>
@@ -15605,7 +15578,7 @@
         <v>338</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>182</v>
@@ -15655,19 +15628,19 @@
     </row>
     <row r="10" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>41</v>
@@ -15678,23 +15651,23 @@
     </row>
     <row r="11" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="13" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="11" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>41</v>
@@ -15705,23 +15678,23 @@
     </row>
     <row r="12" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="13" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="11" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>41</v>
@@ -15914,7 +15887,7 @@
         <v>33</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>47</v>
@@ -15932,39 +15905,39 @@
         <v>45</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>1509</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>1513</v>
-      </c>
       <c r="C2" s="13" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>326</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>1510</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>1514</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
     </row>
   </sheetData>
@@ -15975,10 +15948,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29E6393-3A18-464C-A40D-B41879707264}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16028,10 +16001,10 @@
         <v>436</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -16039,123 +16012,165 @@
         <v>437</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="25" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="B7" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="C7" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="B8" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="C8" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="B9" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="C9" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="B10" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="C10" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="B11" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="C11" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="B12" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="C12" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>486</v>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -16670,13 +16685,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>217</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>30</v>
@@ -16684,16 +16699,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B2" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="C2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D2" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
     </row>
   </sheetData>
@@ -16762,7 +16777,7 @@
         <v>326</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -16776,7 +16791,7 @@
         <v>326</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -16821,7 +16836,7 @@
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="E6" s="51" t="s">
         <v>299</v>
@@ -16863,39 +16878,39 @@
         <v>232</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F2" t="s">
         <v>1485</v>
       </c>
-      <c r="B2" t="s">
-        <v>1487</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1488</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1486</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1489</v>
-      </c>
       <c r="G2" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
     </row>
   </sheetData>
@@ -16928,61 +16943,61 @@
         <v>214</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="D1" s="62" t="s">
         <v>216</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="B2" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E2" s="63" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F2" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="B3" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E3" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F3" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="B4" t="s">
         <v>218</v>
@@ -16991,541 +17006,541 @@
         <v>252</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E4" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F4" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="B5" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E5" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F5" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="B6" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E6" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F6" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="B7" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E7" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F7" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="B8" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E8" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F8" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="B9" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E9" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F9" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="B10" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E10" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F10" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="B11" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E11" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F11" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="B12" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E12" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F12" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="B13" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E13" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F13" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="B14" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E14" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F14" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="B15" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E15" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F15" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="B16" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E16" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F16" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="B17" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E17" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F17" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="B18" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E18" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F18" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="B19" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E19" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F19" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="B20" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E20" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F20" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="B21" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E21" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F21" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="B22" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E22" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F22" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="B23" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E23" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F23" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="B24" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E24" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F24" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="B25" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E25" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F25" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="B26" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E26" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F26" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="B27" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E27" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F27" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="B28" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D28" s="44" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E28" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F28" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="B29" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E29" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F29" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="B30" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D30" s="44" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E30" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F30" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="B31" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>252</v>
@@ -17537,927 +17552,927 @@
         <v>252</v>
       </c>
       <c r="F31" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="B32" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E32" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F32" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="B33" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E33" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F33" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="B34" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D34" s="44" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E34" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F34" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="B35" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D35" s="44" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E35" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F35" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="B36" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D36" s="44" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E36" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F36" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="B37" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D37" s="44" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E37" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F37" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="B38" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D38" s="44" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E38" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F38" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="B39" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D39" s="44" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E39" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F39" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="B40" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D40" s="44" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E40" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F40" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="B41" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E41" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F41" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="B42" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D42" s="44" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E42" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F42" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="B43" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D43" s="44" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E43" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F43" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="B44" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D44" s="44" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E44" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F44" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="B45" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D45" s="44" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E45" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F45" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="B46" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D46" s="44" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E46" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F46" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="B47" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D47" s="44" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E47" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F47" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="B48" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D48" s="44" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E48" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F48" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="B49" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D49" s="44" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E49" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F49" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="B50" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D50" s="44" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E50" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F50" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="B51" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D51" s="45" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="E51" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F51" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="B52" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D52" s="44" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E52" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F52" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="B53" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D53" s="44" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E53" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F53" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="B54" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D54" s="44" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E54" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F54" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="B55" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D55" s="44" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="E55" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F55" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="B56" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D56" s="44" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E56" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F56" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="B57" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D57" s="44" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E57" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F57" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="B58" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D58" s="44" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="E58" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F58" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="B59" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D59" s="44" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E59" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F59" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="B60" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D60" s="44" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E60" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F60" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="B61" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D61" s="44" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E61" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F61" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="B62" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D62" s="44" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="E62" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F62" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="B63" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D63" s="45" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="E63" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F63" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="B64" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D64" s="44" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="E64" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F64" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="B65" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D65" s="44" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="E65" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F65" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="B66" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D66" s="44" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E66" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F66" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="B67" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D67" s="44" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E67" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F67" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="B68" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D68" s="44" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E68" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F68" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="B69" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D69" s="44" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="E69" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F69" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="B70" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D70" s="44" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E70" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F70" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="B71" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D71" s="44" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E71" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F71" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="B72" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D72" s="44" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E72" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F72" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="B73" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D73" s="44" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="E73" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F73" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="B74" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E74" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F74" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="B75" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D75" s="44" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="E75" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F75" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="B76" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D76" s="44" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="E76" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F76" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="B77" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D77" s="44" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="E77" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F77" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
     </row>
   </sheetData>
@@ -18491,50 +18506,50 @@
         <v>214</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="D1" s="62" t="s">
         <v>216</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E2" s="63" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="E3" s="63" t="s">
         <v>252</v>
@@ -18543,16 +18558,16 @@
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>252</v>
@@ -18560,16 +18575,16 @@
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>252</v>
@@ -18578,67 +18593,67 @@
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="B9" s="45" t="s">
         <v>218</v>
@@ -18647,7 +18662,7 @@
         <v>252</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>252</v>
@@ -18656,16 +18671,16 @@
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>252</v>
@@ -18674,16 +18689,16 @@
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>252</v>
@@ -18692,16 +18707,16 @@
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>252</v>
@@ -18710,16 +18725,16 @@
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>252</v>
@@ -18728,16 +18743,16 @@
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>252</v>
@@ -18746,16 +18761,16 @@
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>252</v>
@@ -18764,36 +18779,36 @@
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>252</v>
@@ -18802,36 +18817,36 @@
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>252</v>
@@ -18840,16 +18855,16 @@
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>252</v>
@@ -18858,36 +18873,36 @@
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>252</v>
@@ -18896,16 +18911,16 @@
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>252</v>
@@ -18914,16 +18929,16 @@
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>252</v>
@@ -18932,16 +18947,16 @@
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>252</v>
@@ -18950,16 +18965,16 @@
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>252</v>
@@ -18968,16 +18983,16 @@
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>252</v>
@@ -18986,16 +19001,16 @@
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>252</v>
@@ -19004,16 +19019,16 @@
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>252</v>
@@ -19022,16 +19037,16 @@
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>252</v>
@@ -19040,16 +19055,16 @@
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D31" s="45" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>252</v>
@@ -19058,16 +19073,16 @@
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D32" s="45" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>252</v>
@@ -19076,16 +19091,16 @@
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D33" s="45" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>252</v>
@@ -19094,16 +19109,16 @@
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D34" s="45" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>252</v>
@@ -19112,16 +19127,16 @@
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>252</v>
@@ -19130,56 +19145,56 @@
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D36" s="45" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D37" s="45" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>252</v>
@@ -19188,16 +19203,16 @@
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>252</v>
@@ -19206,16 +19221,16 @@
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>252</v>
@@ -19224,16 +19239,16 @@
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D41" s="45" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>252</v>
@@ -19242,16 +19257,16 @@
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D42" s="45" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>252</v>
@@ -19260,16 +19275,16 @@
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D43" s="45" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>252</v>
@@ -19278,16 +19293,16 @@
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D44" s="45" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>252</v>
@@ -19296,16 +19311,16 @@
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D45" s="45" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>252</v>
@@ -19314,16 +19329,16 @@
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D46" s="45" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>252</v>
@@ -19332,16 +19347,16 @@
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>252</v>
@@ -19350,16 +19365,16 @@
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="B48" s="45" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>252</v>
@@ -19368,16 +19383,16 @@
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="B49" s="45" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D49" s="45" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>252</v>
@@ -19386,16 +19401,16 @@
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="B50" s="45" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D50" s="45" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>252</v>
@@ -19404,16 +19419,16 @@
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="B51" s="45" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D51" s="45" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>252</v>
@@ -19422,16 +19437,16 @@
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="B52" s="45" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D52" s="45" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>252</v>
@@ -19440,16 +19455,16 @@
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="B53" s="45" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D53" s="45" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>252</v>
@@ -19458,16 +19473,16 @@
     </row>
     <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="B54" s="45" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D54" s="45" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>252</v>
@@ -19476,16 +19491,16 @@
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D55" s="45" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>252</v>
@@ -19494,16 +19509,16 @@
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D56" s="45" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>252</v>
@@ -19512,16 +19527,16 @@
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="B57" s="45" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D57" s="45" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>252</v>
@@ -19530,16 +19545,16 @@
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D58" s="45" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>252</v>
@@ -19548,16 +19563,16 @@
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D59" s="45" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>252</v>
@@ -19566,16 +19581,16 @@
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D60" s="45" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>252</v>
@@ -19584,16 +19599,16 @@
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D61" s="45" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>252</v>
@@ -19602,16 +19617,16 @@
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D62" s="45" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>252</v>
@@ -19620,16 +19635,16 @@
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D63" s="45" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>252</v>
@@ -19638,16 +19653,16 @@
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D64" s="45" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>252</v>
@@ -19656,16 +19671,16 @@
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>252</v>
@@ -19674,16 +19689,16 @@
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D66" s="45" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>252</v>
@@ -19692,16 +19707,16 @@
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D67" s="45" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>252</v>
@@ -19710,16 +19725,16 @@
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D68" s="45" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>252</v>
@@ -19728,16 +19743,16 @@
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D69" s="45" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>252</v>
@@ -19746,16 +19761,16 @@
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D70" s="45" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>252</v>
@@ -19764,16 +19779,16 @@
     </row>
     <row r="71" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D71" s="45" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>252</v>
@@ -19782,16 +19797,16 @@
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D72" s="45" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>252</v>
@@ -19800,16 +19815,16 @@
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D73" s="45" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>252</v>
@@ -19818,16 +19833,16 @@
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D74" s="45" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>252</v>
@@ -19836,16 +19851,16 @@
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D75" s="45" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>252</v>
@@ -19854,16 +19869,16 @@
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="B76" s="45" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D76" s="45" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>252</v>
@@ -19872,16 +19887,16 @@
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D77" s="45" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>252</v>
@@ -19890,16 +19905,16 @@
     </row>
     <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D78" s="45" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>252</v>
@@ -19908,16 +19923,16 @@
     </row>
     <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D79" s="45" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>252</v>
@@ -19926,16 +19941,16 @@
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="B80" s="45" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D80" s="45" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>252</v>
@@ -19944,16 +19959,16 @@
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="B81" s="45" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D81" s="45" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>252</v>
@@ -19962,16 +19977,16 @@
     </row>
     <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="B82" s="45" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D82" s="45" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>252</v>
@@ -19980,16 +19995,16 @@
     </row>
     <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="B83" s="45" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D83" s="45" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>252</v>
@@ -19998,16 +20013,16 @@
     </row>
     <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="B84" s="45" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D84" s="45" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>252</v>
@@ -20016,16 +20031,16 @@
     </row>
     <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="B85" s="45" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D85" s="45" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>252</v>
@@ -20034,16 +20049,16 @@
     </row>
     <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="B86" s="45" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D86" s="45" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>252</v>
@@ -20052,16 +20067,16 @@
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="B87" s="45" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D87" s="45" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>252</v>
@@ -20070,16 +20085,16 @@
     </row>
     <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="B88" s="45" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D88" s="45" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>252</v>
@@ -20088,16 +20103,16 @@
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="B89" s="45" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D89" s="45" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>252</v>
@@ -20106,16 +20121,16 @@
     </row>
     <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="B90" s="45" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D90" s="45" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>252</v>
@@ -20124,16 +20139,16 @@
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="B91" s="45" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D91" s="45" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>252</v>
@@ -20142,16 +20157,16 @@
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="B92" s="45" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D92" s="45" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>252</v>
@@ -20160,16 +20175,16 @@
     </row>
     <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="B93" s="45" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D93" s="45" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>252</v>
@@ -20178,16 +20193,16 @@
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="B94" s="45" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D94" s="45" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>252</v>
@@ -20196,16 +20211,16 @@
     </row>
     <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="B95" s="45" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D95" s="45" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>252</v>
@@ -20214,16 +20229,16 @@
     </row>
     <row r="96" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="B96" s="45" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D96" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>252</v>
@@ -20232,16 +20247,16 @@
     </row>
     <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="B97" s="45" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D97" s="45" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>252</v>
@@ -20250,16 +20265,16 @@
     </row>
     <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="B98" s="45" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D98" s="45" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>252</v>
@@ -20268,16 +20283,16 @@
     </row>
     <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="B99" s="45" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D99" s="45" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>252</v>
@@ -20286,16 +20301,16 @@
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="B100" s="45" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D100" s="45" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>252</v>
@@ -20304,16 +20319,16 @@
     </row>
     <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="B101" s="45" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D101" s="45" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>252</v>
@@ -20322,16 +20337,16 @@
     </row>
     <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="B102" s="45" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D102" s="45" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>252</v>
@@ -20340,16 +20355,16 @@
     </row>
     <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="B103" s="45" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D103" s="45" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>252</v>
@@ -20358,16 +20373,16 @@
     </row>
     <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="B104" s="45" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D104" s="45" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>252</v>
@@ -20376,16 +20391,16 @@
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="B105" s="45" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D105" s="45" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>252</v>
@@ -20394,16 +20409,16 @@
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="B106" s="45" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D106" s="45" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>252</v>
@@ -20412,16 +20427,16 @@
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="B107" s="45" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D107" s="45" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>252</v>
@@ -20430,16 +20445,16 @@
     </row>
     <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="B108" s="45" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D108" s="45" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>252</v>
@@ -20448,16 +20463,16 @@
     </row>
     <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="B109" s="45" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D109" s="45" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>252</v>
@@ -20466,16 +20481,16 @@
     </row>
     <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="B110" s="45" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D110" s="45" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>252</v>
@@ -20484,16 +20499,16 @@
     </row>
     <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="B111" s="45" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D111" s="45" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>252</v>
@@ -20502,16 +20517,16 @@
     </row>
     <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="B112" s="45" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D112" s="45" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>252</v>
@@ -20520,16 +20535,16 @@
     </row>
     <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="B113" s="45" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D113" s="45" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>252</v>
@@ -20538,7 +20553,7 @@
     </row>
     <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="B114" s="45" t="s">
         <v>219</v>
@@ -20547,7 +20562,7 @@
         <v>252</v>
       </c>
       <c r="D114" s="45" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>252</v>
@@ -20556,16 +20571,16 @@
     </row>
     <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="B115" s="45" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D115" s="45" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>252</v>
@@ -20574,16 +20589,16 @@
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="B116" s="45" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D116" s="45" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>252</v>
@@ -20592,16 +20607,16 @@
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="B117" s="45" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D117" s="45" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>252</v>
@@ -20610,16 +20625,16 @@
     </row>
     <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="B118" s="45" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D118" s="45" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>252</v>
@@ -20628,16 +20643,16 @@
     </row>
     <row r="119" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="B119" s="45" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D119" s="45" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>252</v>
@@ -20646,16 +20661,16 @@
     </row>
     <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="B120" s="45" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D120" s="45" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>252</v>
@@ -20664,16 +20679,16 @@
     </row>
     <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="B121" s="45" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D121" s="45" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>252</v>
@@ -20682,16 +20697,16 @@
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="B122" s="45" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D122" s="45" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>252</v>
@@ -20700,16 +20715,16 @@
     </row>
     <row r="123" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="B123" s="45" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D123" s="45" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>252</v>
@@ -20718,16 +20733,16 @@
     </row>
     <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="B124" s="45" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D124" s="45" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>252</v>
@@ -20736,16 +20751,16 @@
     </row>
     <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="B125" s="45" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D125" s="45" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>252</v>
@@ -20754,16 +20769,16 @@
     </row>
     <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="B126" s="45" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D126" s="45" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>252</v>
@@ -20772,16 +20787,16 @@
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="B127" s="45" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D127" s="45" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>252</v>
@@ -20790,16 +20805,16 @@
     </row>
     <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="B128" s="45" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D128" s="45" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>252</v>
@@ -20808,16 +20823,16 @@
     </row>
     <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="B129" s="45" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D129" s="45" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>252</v>
@@ -20826,16 +20841,16 @@
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="B130" s="45" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D130" s="45" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>252</v>
@@ -20844,16 +20859,16 @@
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="B131" s="45" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D131" s="45" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>252</v>
@@ -20862,16 +20877,16 @@
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="B132" s="45" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D132" s="45" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>252</v>
@@ -20880,16 +20895,16 @@
     </row>
     <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="B133" s="45" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D133" s="45" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>252</v>
@@ -20898,16 +20913,16 @@
     </row>
     <row r="134" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="B134" s="45" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D134" s="45" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>252</v>
@@ -20916,16 +20931,16 @@
     </row>
     <row r="135" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="B135" s="45" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D135" s="45" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>252</v>
@@ -20934,7 +20949,7 @@
     </row>
     <row r="136" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="B136" s="45" t="s">
         <v>220</v>
@@ -20943,7 +20958,7 @@
         <v>252</v>
       </c>
       <c r="D136" s="45" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>252</v>
@@ -20952,16 +20967,16 @@
     </row>
     <row r="137" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B137" s="45" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D137" s="45" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>252</v>
@@ -20970,16 +20985,16 @@
     </row>
     <row r="138" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="B138" s="45" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D138" s="45" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>252</v>
@@ -20988,16 +21003,16 @@
     </row>
     <row r="139" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="B139" s="45" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D139" s="45" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>252</v>
@@ -21006,16 +21021,16 @@
     </row>
     <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="B140" s="45" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D140" s="45" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>252</v>
@@ -21024,16 +21039,16 @@
     </row>
     <row r="141" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="B141" s="45" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D141" s="45" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>252</v>
@@ -21042,16 +21057,16 @@
     </row>
     <row r="142" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="B142" s="45" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D142" s="45" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>252</v>
@@ -21060,16 +21075,16 @@
     </row>
     <row r="143" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="B143" s="45" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D143" s="45" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>252</v>
@@ -21078,16 +21093,16 @@
     </row>
     <row r="144" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="B144" s="45" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D144" s="45" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>252</v>
@@ -21096,16 +21111,16 @@
     </row>
     <row r="145" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="B145" s="45" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D145" s="45" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>252</v>
@@ -21114,16 +21129,16 @@
     </row>
     <row r="146" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="B146" s="45" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D146" s="45" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>252</v>
@@ -21132,16 +21147,16 @@
     </row>
     <row r="147" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="B147" s="45" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D147" s="45" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>252</v>
@@ -21150,16 +21165,16 @@
     </row>
     <row r="148" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="B148" s="45" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D148" s="45" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>252</v>
@@ -21168,16 +21183,16 @@
     </row>
     <row r="149" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="B149" s="45" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D149" s="45" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>252</v>
@@ -21186,16 +21201,16 @@
     </row>
     <row r="150" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="B150" s="45" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D150" s="45" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>252</v>
@@ -21204,7 +21219,7 @@
     </row>
     <row r="151" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="B151" s="45" t="s">
         <v>221</v>
@@ -21213,7 +21228,7 @@
         <v>252</v>
       </c>
       <c r="D151" s="45" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>252</v>
@@ -21222,16 +21237,16 @@
     </row>
     <row r="152" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B152" s="45" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D152" s="45" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>252</v>
@@ -21240,16 +21255,16 @@
     </row>
     <row r="153" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="B153" s="45" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D153" s="45" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>252</v>
@@ -21258,16 +21273,16 @@
     </row>
     <row r="154" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="B154" s="45" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D154" s="45" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>252</v>
@@ -21276,7 +21291,7 @@
     </row>
     <row r="155" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="B155" s="45" t="s">
         <v>222</v>
@@ -21285,7 +21300,7 @@
         <v>252</v>
       </c>
       <c r="D155" s="45" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>252</v>
@@ -21294,7 +21309,7 @@
     </row>
     <row r="156" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="B156" s="45" t="s">
         <v>223</v>
@@ -21303,7 +21318,7 @@
         <v>252</v>
       </c>
       <c r="D156" s="45" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>252</v>
@@ -21340,664 +21355,664 @@
     </row>
     <row r="2" spans="1:2" ht="388" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="B4" s="13"/>
     </row>
     <row r="5" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="289" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="B21" s="13"/>
     </row>
     <row r="22" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="B26" s="13"/>
     </row>
     <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="372" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="B42" s="13"/>
     </row>
     <row r="43" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="404" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="B48" s="45" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="B49" s="13"/>
     </row>
     <row r="50" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="B50" s="45" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="B51" s="45" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="B52" s="13"/>
     </row>
     <row r="53" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="B53" s="45" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="404" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="B54" s="45" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="B57" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="404" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="B63" s="13"/>
     </row>
     <row r="64" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="B76" s="45" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="B80" s="45" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="B81" s="45" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="B82" s="45" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="B83" s="45" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="B84" s="45" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="B85" s="45" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="B86" s="45" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>
@@ -22060,18 +22075,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="B5" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="B6" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
   </sheetData>
@@ -22101,7 +22116,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>215</v>
@@ -22113,30 +22128,30 @@
         <v>232</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="F1" s="33" t="s">
         <v>247</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B2" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="E2" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="F2" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="G2" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
     </row>
   </sheetData>
@@ -22165,7 +22180,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>314</v>
@@ -22194,16 +22209,16 @@
         <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="D2" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="E2" t="s">
         <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="G2" t="s">
         <v>398</v>
@@ -22220,16 +22235,16 @@
         <v>256</v>
       </c>
       <c r="D3" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="E3" t="s">
         <v>257</v>
       </c>
       <c r="F3" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="G3" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -22240,19 +22255,19 @@
         <v>123456789</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="F4" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="G4" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -22280,7 +22295,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -22288,7 +22303,7 @@
         <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -22328,21 +22343,21 @@
         <v>21</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="B2" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="C2" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -22374,169 +22389,169 @@
       <c r="A1" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="73" t="s">
-        <v>517</v>
-      </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
+      <c r="B3" s="72" t="s">
+        <v>513</v>
+      </c>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>1539</v>
-      </c>
-      <c r="B7" s="70" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B7" s="73" t="s">
         <v>410</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>510</v>
-      </c>
-      <c r="B9" s="70" t="s">
-        <v>511</v>
-      </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
+        <v>506</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>507</v>
+      </c>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="B10" s="70" t="s">
-        <v>513</v>
-      </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
+        <v>508</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>509</v>
+      </c>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
     </row>
     <row r="12" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="71" t="s">
-        <v>1598</v>
-      </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
+      <c r="B12" s="74" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -22628,11 +22643,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B13:F13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
@@ -22642,6 +22652,11 @@
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B13:F13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22668,7 +22683,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>215</v>
@@ -22680,24 +22695,24 @@
         <v>232</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>509</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
     </row>
   </sheetData>
@@ -22706,6 +22721,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -22906,27 +22941,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22943,29 +22983,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tests/usdm4/test_files/expander/example_study.xlsx
+++ b/tests/usdm4/test_files/expander/example_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm4/tests/usdm4/test_files/expander/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AF785D-2CC6-2340-BFC0-0F0EC04F5991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFDC52D-3AE0-334B-A9DD-6ABB03368F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" firstSheet="22" activeTab="26" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" firstSheet="12" activeTab="17" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3446" uniqueCount="1606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3456" uniqueCount="1615">
   <si>
     <t>Screening</t>
   </si>
@@ -1502,9 +1502,6 @@
   </si>
   <si>
     <t>Vital Signs Supine</t>
-  </si>
-  <si>
-    <t>BC:Systolic blood pressure, BC:Diastolic blood pressure, BC: Heart Rate</t>
   </si>
   <si>
     <t>Vital Signs Standing</t>
@@ -6873,12 +6870,6 @@
     <t>Anchor</t>
   </si>
   <si>
-    <t>1 Hour</t>
-  </si>
-  <si>
-    <t>2 Hour</t>
-  </si>
-  <si>
     <t>TIM25</t>
   </si>
   <si>
@@ -6990,9 +6981,6 @@
     <t>SOG Diary</t>
   </si>
   <si>
-    <t>PR: SOG Diary</t>
-  </si>
-  <si>
     <t>Diary Timeline</t>
   </si>
   <si>
@@ -7012,6 +7000,45 @@
   </si>
   <si>
     <t>Heart Rate</t>
+  </si>
+  <si>
+    <t>Extra VS procedures</t>
+  </si>
+  <si>
+    <t>1 Hour Extra VS</t>
+  </si>
+  <si>
+    <t>Extra VS</t>
+  </si>
+  <si>
+    <t>2 Hour Extra VS</t>
+  </si>
+  <si>
+    <t>Patient Recorded Outcomes</t>
+  </si>
+  <si>
+    <t>PRO</t>
+  </si>
+  <si>
+    <t>EQ-5D-5L</t>
+  </si>
+  <si>
+    <t>EUROQOL EQ-5D-5L</t>
+  </si>
+  <si>
+    <t>SPONSOR: 300=EQ-5D-5L</t>
+  </si>
+  <si>
+    <t>Patient-Reported Outcomes Measurement Information System</t>
+  </si>
+  <si>
+    <t>PROMIS</t>
+  </si>
+  <si>
+    <t>SPONSOR: 301=PROMIS</t>
+  </si>
+  <si>
+    <t>PR: PROMIS, PR: EQ-5D-5L</t>
   </si>
 </sst>
 </file>
@@ -7175,7 +7202,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -7376,16 +7403,22 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -7955,13 +7988,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C16" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="D16" t="s">
         <v>241</v>
@@ -8032,13 +8065,13 @@
         <v>317</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>318</v>
@@ -8052,13 +8085,13 @@
         <v>424</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>318</v>
@@ -8072,13 +8105,13 @@
         <v>425</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>418</v>
@@ -8089,16 +8122,16 @@
         <v>316</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F5" s="50" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G5" s="51" t="s">
         <v>418</v>
@@ -8109,16 +8142,16 @@
         <v>316</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -8126,16 +8159,16 @@
         <v>316</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -8143,16 +8176,16 @@
         <v>316</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -8160,16 +8193,16 @@
         <v>316</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -8180,13 +8213,13 @@
         <v>427</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -8197,13 +8230,13 @@
         <v>219</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -8214,13 +8247,13 @@
         <v>220</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="204" x14ac:dyDescent="0.2">
@@ -8231,13 +8264,13 @@
         <v>221</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8248,13 +8281,13 @@
         <v>222</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -8265,13 +8298,13 @@
         <v>223</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -8282,13 +8315,13 @@
         <v>224</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="170" x14ac:dyDescent="0.2">
@@ -8296,16 +8329,16 @@
         <v>426</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="153" x14ac:dyDescent="0.2">
@@ -8313,16 +8346,16 @@
         <v>426</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="153" x14ac:dyDescent="0.2">
@@ -8330,16 +8363,16 @@
         <v>426</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="136" x14ac:dyDescent="0.2">
@@ -8347,16 +8380,16 @@
         <v>426</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -8364,16 +8397,16 @@
         <v>426</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -8381,16 +8414,16 @@
         <v>426</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -8398,16 +8431,16 @@
         <v>426</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8415,16 +8448,16 @@
         <v>426</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -8432,16 +8465,16 @@
         <v>426</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -8449,16 +8482,16 @@
         <v>426</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -8466,16 +8499,16 @@
         <v>426</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -8483,16 +8516,16 @@
         <v>426</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
@@ -8500,16 +8533,16 @@
         <v>426</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -8517,16 +8550,16 @@
         <v>426</v>
       </c>
       <c r="B30" s="31" t="s">
+        <v>549</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>800</v>
+      </c>
+      <c r="F30" s="13" t="s">
         <v>550</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>801</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -8534,16 +8567,16 @@
         <v>426</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
@@ -8551,16 +8584,16 @@
         <v>426</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
   </sheetData>
@@ -8780,7 +8813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -9216,13 +9249,13 @@
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="14" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="K9" s="54"/>
       <c r="M9" s="54"/>
@@ -9426,7 +9459,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -10329,7 +10362,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="C32" s="4"/>
       <c r="F32" s="2"/>
@@ -10408,7 +10441,7 @@
         <v>13</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>1</v>
@@ -10628,7 +10661,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="26"/>
@@ -10697,7 +10730,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="4"/>
@@ -12771,7 +12804,7 @@
         <v>476</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>1</v>
@@ -12780,10 +12813,10 @@
     <row r="11" spans="1:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>1</v>
@@ -12925,7 +12958,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12941,19 +12974,19 @@
         <v>73</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>215</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1555</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1556</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1557</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -12961,7 +12994,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>31</v>
@@ -12979,13 +13012,13 @@
         <v>232</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>1558</v>
+        <v>1604</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>1559</v>
+        <v>1603</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>1560</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -13011,10 +13044,10 @@
         <v>284</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>1556</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1557</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>300</v>
@@ -13055,10 +13088,10 @@
     <row r="10" spans="1:6" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>476</v>
+        <v>1602</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>477</v>
+        <v>1598</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -13191,8 +13224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FF706F-AE10-6E4B-8EAD-DB97659AF4F7}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13209,25 +13242,25 @@
         <v>73</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>215</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1577</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1578</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1580</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1581</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -13235,7 +13268,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>31</v>
@@ -13255,19 +13288,19 @@
         <v>232</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E3" s="41" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>1576</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>1600</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>1579</v>
-      </c>
       <c r="H3" s="41" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -13286,7 +13319,7 @@
         <v>299</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>299</v>
@@ -13299,16 +13332,16 @@
         <v>284</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>1578</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>1580</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>1581</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>300</v>
@@ -13321,7 +13354,7 @@
         <v>285</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -13352,10 +13385,10 @@
     <row r="10" spans="1:8" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>1597</v>
+        <v>1607</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>1598</v>
+        <v>1614</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>1</v>
@@ -14038,10 +14071,10 @@
         <v>431</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>277</v>
@@ -14063,10 +14096,10 @@
         <v>432</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>280</v>
@@ -14090,10 +14123,10 @@
         <v>433</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>280</v>
@@ -14105,7 +14138,7 @@
         <v>466</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>435</v>
@@ -14117,10 +14150,10 @@
         <v>434</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>280</v>
@@ -14132,7 +14165,7 @@
         <v>467</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>268</v>
@@ -14141,13 +14174,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>280</v>
@@ -14159,7 +14192,7 @@
         <v>468</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>435</v>
@@ -14168,13 +14201,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>280</v>
@@ -14186,7 +14219,7 @@
         <v>469</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>268</v>
@@ -14195,49 +14228,49 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>1561</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>1564</v>
-      </c>
       <c r="C26" s="15" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>1562</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>1565</v>
-      </c>
       <c r="C27" s="15" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>268</v>
@@ -14245,25 +14278,25 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>1563</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>1566</v>
-      </c>
       <c r="C28" s="15" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>268</v>
@@ -14271,46 +14304,46 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>430</v>
@@ -14321,22 +14354,22 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>278</v>
@@ -14347,22 +14380,22 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>430</v>
@@ -14373,22 +14406,22 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>430</v>
@@ -14446,7 +14479,7 @@
         <v>249</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I1" s="36" t="s">
         <v>250</v>
@@ -14455,18 +14488,18 @@
         <v>233</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>1538</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>1539</v>
-      </c>
       <c r="C2" s="32" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -14487,10 +14520,10 @@
         <v>445</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
@@ -14530,24 +14563,24 @@
         <v>217</v>
       </c>
       <c r="E1" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>510</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>828</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>288</v>
@@ -14558,22 +14591,22 @@
     </row>
     <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
+        <v>828</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>830</v>
+      </c>
+      <c r="C3" s="48" t="s">
         <v>829</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="D3" s="49" t="s">
         <v>831</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>830</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>832</v>
       </c>
       <c r="E3" s="48" t="s">
         <v>288</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -14751,10 +14784,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4305555-B5C2-8349-A6D3-AA57DAC0BCD5}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A22" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14788,7 +14821,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -14812,7 +14845,7 @@
         <v>423</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -15033,10 +15066,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C34" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -15044,23 +15077,31 @@
         <v>476</v>
       </c>
       <c r="C35" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C36" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C37" t="s">
-        <v>499</v>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>1606</v>
       </c>
     </row>
   </sheetData>
@@ -15160,93 +15201,93 @@
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>1519</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1519</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="68" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>1512</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="I2" s="69" t="s">
+        <v>1514</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>1520</v>
       </c>
-      <c r="E2" s="68" t="s">
-        <v>1511</v>
-      </c>
-      <c r="F2" s="68" t="s">
-        <v>1512</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>1513</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>1514</v>
-      </c>
-      <c r="I2" s="69" t="s">
+      <c r="K2" s="5" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>1515</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>1521</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>1523</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>1525</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>1516</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>1525</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="5" t="s">
+        <v>1526</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="R2" s="69" t="s">
         <v>1517</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>1527</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="R2" s="69" t="s">
-        <v>1518</v>
-      </c>
       <c r="S2" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="J3" s="3" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="L3" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>1526</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>1516</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="R3" s="69" t="s">
+        <v>1517</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>1526</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>1517</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>1527</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="R3" s="69" t="s">
-        <v>1518</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>1527</v>
       </c>
     </row>
   </sheetData>
@@ -15357,13 +15398,13 @@
         <v>449</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>34</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -15374,7 +15415,7 @@
         <v>326</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -15383,13 +15424,13 @@
         <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -15470,7 +15511,7 @@
         <v>337</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>42</v>
@@ -15515,7 +15556,7 @@
         <v>339</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>54</v>
@@ -15578,7 +15619,7 @@
         <v>338</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>182</v>
@@ -15628,19 +15669,19 @@
     </row>
     <row r="10" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>41</v>
@@ -15651,23 +15692,23 @@
     </row>
     <row r="11" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="13" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>41</v>
@@ -15678,23 +15719,23 @@
     </row>
     <row r="12" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>41</v>
@@ -15887,7 +15928,7 @@
         <v>33</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>47</v>
@@ -15905,39 +15946,39 @@
         <v>45</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>326</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
   </sheetData>
@@ -15948,10 +15989,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29E6393-3A18-464C-A40D-B41879707264}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16001,10 +16042,10 @@
         <v>436</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -16012,165 +16053,193 @@
         <v>437</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="C7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B8" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="C8" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B9" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="C9" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B10" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C10" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B11" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="C11" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="B12" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="C12" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="B13" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="C13" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="B14" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="C14" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="B15" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="C15" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="76" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B17" s="75" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>1613</v>
       </c>
     </row>
   </sheetData>
@@ -16685,13 +16754,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>217</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>30</v>
@@ -16699,16 +16768,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B2" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D2" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
   </sheetData>
@@ -16777,7 +16846,7 @@
         <v>326</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -16791,7 +16860,7 @@
         <v>326</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -16836,7 +16905,7 @@
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E6" s="51" t="s">
         <v>299</v>
@@ -16878,39 +16947,39 @@
         <v>232</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>451</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E2" t="s">
         <v>1481</v>
       </c>
-      <c r="B2" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>1484</v>
       </c>
-      <c r="E2" t="s">
-        <v>1482</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1485</v>
-      </c>
       <c r="G2" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
   </sheetData>
@@ -16943,61 +17012,61 @@
         <v>214</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D1" s="62" t="s">
         <v>216</v>
       </c>
       <c r="E1" s="61" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F1" s="62" t="s">
         <v>1231</v>
-      </c>
-      <c r="F1" s="62" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B2" t="s">
         <v>1233</v>
       </c>
-      <c r="B2" t="s">
-        <v>1234</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E2" s="63" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E3" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B4" t="s">
         <v>218</v>
@@ -17006,541 +17075,541 @@
         <v>252</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E4" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" s="44" t="s">
         <v>572</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>573</v>
-      </c>
       <c r="E5" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E6" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F6" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B7" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E7" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F7" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B8" t="s">
+        <v>575</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="44" t="s">
         <v>576</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>577</v>
-      </c>
       <c r="E8" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F8" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B9" t="s">
+        <v>578</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" s="44" t="s">
         <v>579</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>580</v>
-      </c>
       <c r="E9" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F9" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B10" t="s">
+        <v>581</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" s="44" t="s">
         <v>582</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>583</v>
-      </c>
       <c r="E10" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F10" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B11" t="s">
+        <v>584</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="44" t="s">
         <v>585</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>586</v>
-      </c>
       <c r="E11" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F11" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B12" t="s">
+        <v>587</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" s="44" t="s">
         <v>588</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>589</v>
-      </c>
       <c r="E12" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F12" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B13" t="s">
+        <v>589</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" s="44" t="s">
         <v>590</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>591</v>
-      </c>
       <c r="E13" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F13" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B14" t="s">
+        <v>592</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="44" t="s">
         <v>593</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>594</v>
-      </c>
       <c r="E14" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F14" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B15" t="s">
+        <v>594</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" s="44" t="s">
         <v>595</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>596</v>
-      </c>
       <c r="E15" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F15" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B16" t="s">
+        <v>597</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="44" t="s">
         <v>598</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>599</v>
-      </c>
       <c r="E16" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F16" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B17" t="s">
+        <v>599</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" s="44" t="s">
         <v>600</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>601</v>
-      </c>
       <c r="E17" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F17" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B18" t="s">
+        <v>602</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" s="44" t="s">
         <v>603</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>604</v>
-      </c>
       <c r="E18" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F18" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B19" t="s">
+        <v>605</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" s="44" t="s">
         <v>606</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>607</v>
-      </c>
       <c r="E19" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F19" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B20" t="s">
+        <v>608</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" s="44" t="s">
         <v>609</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>610</v>
-      </c>
       <c r="E20" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F20" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B21" t="s">
+        <v>611</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="44" t="s">
         <v>612</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>613</v>
-      </c>
       <c r="E21" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F21" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B22" t="s">
+        <v>613</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D22" s="44" t="s">
         <v>614</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>615</v>
-      </c>
       <c r="E22" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B23" t="s">
+        <v>616</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="44" t="s">
         <v>617</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>618</v>
-      </c>
       <c r="E23" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F23" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B24" t="s">
+        <v>619</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D24" s="44" t="s">
         <v>620</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>621</v>
-      </c>
       <c r="E24" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F24" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B25" t="s">
+        <v>622</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D25" s="44" t="s">
         <v>623</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>624</v>
-      </c>
       <c r="E25" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F25" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B26" t="s">
+        <v>625</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D26" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>627</v>
-      </c>
       <c r="E26" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F26" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B27" t="s">
+        <v>627</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D27" s="44" t="s">
         <v>628</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D27" s="44" t="s">
-        <v>629</v>
-      </c>
       <c r="E27" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F27" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B28" t="s">
+        <v>630</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D28" s="44" t="s">
         <v>631</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>632</v>
-      </c>
       <c r="E28" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F28" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B29" t="s">
+        <v>632</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D29" s="44" t="s">
         <v>633</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D29" s="44" t="s">
-        <v>634</v>
-      </c>
       <c r="E29" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F29" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B30" t="s">
+        <v>635</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D30" s="44" t="s">
         <v>636</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D30" s="44" t="s">
-        <v>637</v>
-      </c>
       <c r="E30" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F30" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B31" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>252</v>
@@ -17552,927 +17621,927 @@
         <v>252</v>
       </c>
       <c r="F31" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B32" t="s">
+        <v>640</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D32" s="44" t="s">
         <v>641</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D32" s="44" t="s">
-        <v>642</v>
-      </c>
       <c r="E32" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F32" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B33" t="s">
+        <v>643</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D33" s="44" t="s">
         <v>644</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D33" s="44" t="s">
-        <v>645</v>
-      </c>
       <c r="E33" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F33" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B34" t="s">
+        <v>646</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="44" t="s">
         <v>647</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>648</v>
-      </c>
       <c r="E34" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F34" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B35" t="s">
+        <v>649</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D35" s="44" t="s">
         <v>650</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D35" s="44" t="s">
-        <v>651</v>
-      </c>
       <c r="E35" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F35" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B36" t="s">
+        <v>652</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D36" s="44" t="s">
         <v>653</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D36" s="44" t="s">
-        <v>654</v>
-      </c>
       <c r="E36" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F36" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B37" t="s">
+        <v>654</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D37" s="44" t="s">
         <v>655</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D37" s="44" t="s">
-        <v>656</v>
-      </c>
       <c r="E37" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F37" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B38" t="s">
+        <v>656</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D38" s="44" t="s">
         <v>657</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D38" s="44" t="s">
-        <v>658</v>
-      </c>
       <c r="E38" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F38" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B39" t="s">
+        <v>659</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D39" s="44" t="s">
         <v>660</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D39" s="44" t="s">
-        <v>661</v>
-      </c>
       <c r="E39" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F39" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B40" t="s">
+        <v>662</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D40" s="44" t="s">
         <v>663</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D40" s="44" t="s">
-        <v>664</v>
-      </c>
       <c r="E40" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F40" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B41" t="s">
+        <v>665</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D41" s="44" t="s">
         <v>666</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D41" s="44" t="s">
-        <v>667</v>
-      </c>
       <c r="E41" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F41" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B42" t="s">
+        <v>668</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D42" s="44" t="s">
         <v>669</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D42" s="44" t="s">
-        <v>670</v>
-      </c>
       <c r="E42" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F42" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B43" t="s">
+        <v>670</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D43" s="44" t="s">
         <v>671</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D43" s="44" t="s">
-        <v>672</v>
-      </c>
       <c r="E43" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F43" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B44" t="s">
+        <v>673</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D44" s="44" t="s">
         <v>674</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D44" s="44" t="s">
-        <v>675</v>
-      </c>
       <c r="E44" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F44" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B45" t="s">
+        <v>676</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D45" s="44" t="s">
         <v>677</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D45" s="44" t="s">
-        <v>678</v>
-      </c>
       <c r="E45" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F45" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B46" t="s">
+        <v>679</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D46" s="44" t="s">
         <v>680</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D46" s="44" t="s">
-        <v>681</v>
-      </c>
       <c r="E46" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F46" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B47" t="s">
+        <v>682</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D47" s="44" t="s">
         <v>683</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D47" s="44" t="s">
-        <v>684</v>
-      </c>
       <c r="E47" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F47" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B48" t="s">
+        <v>685</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D48" s="44" t="s">
         <v>686</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D48" s="44" t="s">
-        <v>687</v>
-      </c>
       <c r="E48" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F48" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B49" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D49" s="44" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E49" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F49" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B50" t="s">
+        <v>689</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D50" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D50" s="44" t="s">
-        <v>691</v>
-      </c>
       <c r="E50" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F50" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B51" t="s">
+        <v>692</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D51" s="45" t="s">
         <v>1283</v>
       </c>
-      <c r="B51" t="s">
-        <v>693</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D51" s="45" t="s">
-        <v>1284</v>
-      </c>
       <c r="E51" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F51" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B52" t="s">
+        <v>694</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D52" s="44" t="s">
         <v>695</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D52" s="44" t="s">
-        <v>696</v>
-      </c>
       <c r="E52" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F52" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B53" t="s">
+        <v>696</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D53" s="44" t="s">
         <v>697</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D53" s="44" t="s">
-        <v>698</v>
-      </c>
       <c r="E53" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F53" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B54" t="s">
+        <v>699</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D54" s="44" t="s">
         <v>700</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D54" s="44" t="s">
-        <v>701</v>
-      </c>
       <c r="E54" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F54" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B55" t="s">
+        <v>702</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D55" s="44" t="s">
         <v>703</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D55" s="44" t="s">
-        <v>704</v>
-      </c>
       <c r="E55" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F55" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B56" t="s">
+        <v>705</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D56" s="44" t="s">
         <v>706</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D56" s="44" t="s">
-        <v>707</v>
-      </c>
       <c r="E56" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F56" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B57" t="s">
+        <v>708</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D57" s="44" t="s">
         <v>709</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D57" s="44" t="s">
-        <v>710</v>
-      </c>
       <c r="E57" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F57" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B58" t="s">
+        <v>711</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D58" s="44" t="s">
         <v>712</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D58" s="44" t="s">
-        <v>713</v>
-      </c>
       <c r="E58" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F58" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B59" t="s">
+        <v>714</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D59" s="44" t="s">
         <v>715</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D59" s="44" t="s">
-        <v>716</v>
-      </c>
       <c r="E59" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F59" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B60" t="s">
+        <v>717</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D60" s="44" t="s">
         <v>718</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D60" s="44" t="s">
-        <v>719</v>
-      </c>
       <c r="E60" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F60" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B61" t="s">
+        <v>720</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D61" s="44" t="s">
         <v>721</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D61" s="44" t="s">
-        <v>722</v>
-      </c>
       <c r="E61" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F61" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B62" t="s">
+        <v>723</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D62" s="44" t="s">
         <v>724</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D62" s="44" t="s">
-        <v>725</v>
-      </c>
       <c r="E62" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F62" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B63" t="s">
+        <v>903</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D63" s="45" t="s">
         <v>1296</v>
       </c>
-      <c r="B63" t="s">
-        <v>904</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D63" s="45" t="s">
-        <v>1297</v>
-      </c>
       <c r="E63" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F63" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B64" t="s">
+        <v>726</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D64" s="44" t="s">
         <v>727</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D64" s="44" t="s">
-        <v>728</v>
-      </c>
       <c r="E64" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F64" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B65" t="s">
+        <v>729</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D65" s="44" t="s">
         <v>730</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D65" s="44" t="s">
-        <v>731</v>
-      </c>
       <c r="E65" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F65" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B66" t="s">
+        <v>732</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D66" s="44" t="s">
         <v>733</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D66" s="44" t="s">
-        <v>734</v>
-      </c>
       <c r="E66" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F66" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B67" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D67" s="44" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E67" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F67" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B68" t="s">
+        <v>736</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D68" s="44" t="s">
         <v>737</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D68" s="44" t="s">
-        <v>738</v>
-      </c>
       <c r="E68" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F68" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B69" t="s">
+        <v>739</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D69" s="44" t="s">
         <v>740</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D69" s="44" t="s">
-        <v>741</v>
-      </c>
       <c r="E69" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F69" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B70" t="s">
+        <v>741</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D70" s="44" t="s">
         <v>742</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D70" s="44" t="s">
-        <v>743</v>
-      </c>
       <c r="E70" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F70" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B71" t="s">
+        <v>743</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D71" s="44" t="s">
         <v>744</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D71" s="44" t="s">
-        <v>745</v>
-      </c>
       <c r="E71" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F71" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B72" t="s">
+        <v>745</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D72" s="44" t="s">
         <v>746</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D72" s="44" t="s">
-        <v>747</v>
-      </c>
       <c r="E72" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F72" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B73" t="s">
+        <v>747</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D73" s="44" t="s">
         <v>748</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D73" s="44" t="s">
-        <v>749</v>
-      </c>
       <c r="E73" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F73" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B74" t="s">
+        <v>749</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D74" s="44" t="s">
         <v>750</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D74" s="44" t="s">
-        <v>751</v>
-      </c>
       <c r="E74" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F74" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B75" t="s">
+        <v>751</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D75" s="44" t="s">
         <v>752</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D75" s="44" t="s">
-        <v>753</v>
-      </c>
       <c r="E75" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F75" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B76" t="s">
+        <v>753</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D76" s="44" t="s">
         <v>754</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D76" s="44" t="s">
-        <v>755</v>
-      </c>
       <c r="E76" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F76" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B77" t="s">
+        <v>755</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D77" s="44" t="s">
         <v>756</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D77" s="44" t="s">
-        <v>757</v>
-      </c>
       <c r="E77" s="63" t="s">
         <v>252</v>
       </c>
       <c r="F77" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
   </sheetData>
@@ -18506,50 +18575,50 @@
         <v>214</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D1" s="62" t="s">
         <v>216</v>
       </c>
       <c r="E1" s="61" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F1" s="62" t="s">
         <v>1231</v>
-      </c>
-      <c r="F1" s="62" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E2" s="63" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B3" s="46" t="s">
+        <v>838</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="45" t="s">
         <v>839</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>840</v>
       </c>
       <c r="E3" s="63" t="s">
         <v>252</v>
@@ -18558,16 +18627,16 @@
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B4" s="45" t="s">
+        <v>840</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="45" t="s">
         <v>841</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>842</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>252</v>
@@ -18575,16 +18644,16 @@
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B5" s="45" t="s">
+        <v>843</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" s="45" t="s">
         <v>844</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>845</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>252</v>
@@ -18593,67 +18662,67 @@
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B6" s="45" t="s">
+        <v>845</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="45" t="s">
         <v>846</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>847</v>
-      </c>
       <c r="E6" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B7" s="45" t="s">
+        <v>848</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="45" t="s">
         <v>849</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>850</v>
-      </c>
       <c r="E7" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B8" s="45" t="s">
+        <v>851</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="45" t="s">
         <v>852</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>853</v>
-      </c>
       <c r="E8" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B9" s="45" t="s">
         <v>218</v>
@@ -18662,7 +18731,7 @@
         <v>252</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>252</v>
@@ -18671,16 +18740,16 @@
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B10" s="45" t="s">
+        <v>854</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" s="45" t="s">
         <v>855</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>856</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>252</v>
@@ -18689,16 +18758,16 @@
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B11" s="45" t="s">
+        <v>856</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="45" t="s">
         <v>857</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>858</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>252</v>
@@ -18707,16 +18776,16 @@
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B12" s="45" t="s">
+        <v>858</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" s="45" t="s">
         <v>859</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>860</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>252</v>
@@ -18725,16 +18794,16 @@
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B13" s="45" t="s">
+        <v>860</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" s="45" t="s">
         <v>861</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>862</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>252</v>
@@ -18743,16 +18812,16 @@
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B14" s="45" t="s">
+        <v>862</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="45" t="s">
         <v>863</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>864</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>252</v>
@@ -18761,16 +18830,16 @@
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B15" s="45" t="s">
+        <v>864</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" s="45" t="s">
         <v>865</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>866</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>252</v>
@@ -18779,36 +18848,36 @@
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B16" s="45" t="s">
+        <v>866</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="45" t="s">
         <v>867</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>868</v>
-      </c>
       <c r="E16" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B17" s="45" t="s">
+        <v>868</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" s="45" t="s">
         <v>869</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>870</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>252</v>
@@ -18817,36 +18886,36 @@
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B18" s="45" t="s">
+        <v>870</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" s="45" t="s">
         <v>871</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>872</v>
-      </c>
       <c r="E18" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B19" s="45" t="s">
+        <v>872</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" s="45" t="s">
         <v>873</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>874</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>252</v>
@@ -18855,16 +18924,16 @@
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B20" s="45" t="s">
+        <v>874</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" s="45" t="s">
         <v>875</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>876</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>252</v>
@@ -18873,36 +18942,36 @@
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B21" s="45" t="s">
+        <v>876</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="45" t="s">
         <v>877</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>878</v>
-      </c>
       <c r="E21" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B22" s="45" t="s">
+        <v>879</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D22" s="45" t="s">
         <v>880</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>881</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>252</v>
@@ -18911,16 +18980,16 @@
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B23" s="45" t="s">
+        <v>881</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="45" t="s">
         <v>882</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>883</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>252</v>
@@ -18929,16 +18998,16 @@
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B24" s="45" t="s">
+        <v>883</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D24" s="45" t="s">
         <v>884</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>885</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>252</v>
@@ -18947,16 +19016,16 @@
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B25" s="45" t="s">
+        <v>885</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D25" s="45" t="s">
         <v>886</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>887</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>252</v>
@@ -18965,16 +19034,16 @@
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B26" s="45" t="s">
+        <v>887</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D26" s="45" t="s">
         <v>888</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>889</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>252</v>
@@ -18983,16 +19052,16 @@
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B27" s="45" t="s">
+        <v>889</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D27" s="45" t="s">
         <v>890</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>891</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>252</v>
@@ -19001,16 +19070,16 @@
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B28" s="45" t="s">
+        <v>891</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D28" s="45" t="s">
         <v>892</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>893</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>252</v>
@@ -19019,16 +19088,16 @@
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B29" s="45" t="s">
+        <v>893</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D29" s="45" t="s">
         <v>894</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>895</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>252</v>
@@ -19037,16 +19106,16 @@
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B30" s="45" t="s">
+        <v>895</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D30" s="45" t="s">
         <v>896</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D30" s="45" t="s">
-        <v>897</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>252</v>
@@ -19055,16 +19124,16 @@
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B31" s="45" t="s">
+        <v>897</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D31" s="45" t="s">
         <v>898</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D31" s="45" t="s">
-        <v>899</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>252</v>
@@ -19073,16 +19142,16 @@
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B32" s="45" t="s">
+        <v>899</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D32" s="45" t="s">
         <v>900</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D32" s="45" t="s">
-        <v>901</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>252</v>
@@ -19091,16 +19160,16 @@
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B33" s="45" t="s">
+        <v>901</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D33" s="45" t="s">
         <v>902</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D33" s="45" t="s">
-        <v>903</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>252</v>
@@ -19109,16 +19178,16 @@
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B34" s="45" t="s">
+        <v>903</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="45" t="s">
         <v>904</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D34" s="45" t="s">
-        <v>905</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>252</v>
@@ -19127,16 +19196,16 @@
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B35" s="45" t="s">
+        <v>905</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D35" s="45" t="s">
         <v>906</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D35" s="45" t="s">
-        <v>907</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>252</v>
@@ -19145,56 +19214,56 @@
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D36" s="45" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D37" s="45" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B38" s="45" t="s">
+        <v>909</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D38" s="45" t="s">
         <v>910</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D38" s="45" t="s">
-        <v>911</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>252</v>
@@ -19203,16 +19272,16 @@
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B39" s="45" t="s">
+        <v>911</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D39" s="45" t="s">
         <v>912</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>913</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>252</v>
@@ -19221,16 +19290,16 @@
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B40" s="45" t="s">
+        <v>913</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D40" s="45" t="s">
         <v>914</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>915</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>252</v>
@@ -19239,16 +19308,16 @@
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B41" s="45" t="s">
+        <v>915</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D41" s="45" t="s">
         <v>916</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D41" s="45" t="s">
-        <v>917</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>252</v>
@@ -19257,16 +19326,16 @@
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B42" s="45" t="s">
+        <v>917</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D42" s="45" t="s">
         <v>918</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D42" s="45" t="s">
-        <v>919</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>252</v>
@@ -19275,16 +19344,16 @@
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B43" s="45" t="s">
+        <v>919</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D43" s="45" t="s">
         <v>920</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D43" s="45" t="s">
-        <v>921</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>252</v>
@@ -19293,16 +19362,16 @@
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B44" s="45" t="s">
+        <v>921</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D44" s="45" t="s">
         <v>922</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D44" s="45" t="s">
-        <v>923</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>252</v>
@@ -19311,16 +19380,16 @@
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B45" s="45" t="s">
+        <v>923</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D45" s="45" t="s">
         <v>924</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D45" s="45" t="s">
-        <v>925</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>252</v>
@@ -19329,16 +19398,16 @@
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B46" s="45" t="s">
+        <v>925</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D46" s="45" t="s">
         <v>926</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D46" s="45" t="s">
-        <v>927</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>252</v>
@@ -19347,16 +19416,16 @@
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B47" s="45" t="s">
+        <v>927</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D47" s="45" t="s">
         <v>928</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D47" s="45" t="s">
-        <v>929</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>252</v>
@@ -19365,16 +19434,16 @@
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B48" s="45" t="s">
+        <v>929</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D48" s="45" t="s">
         <v>930</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D48" s="45" t="s">
-        <v>931</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>252</v>
@@ -19383,16 +19452,16 @@
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B49" s="45" t="s">
+        <v>931</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D49" s="45" t="s">
         <v>932</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D49" s="45" t="s">
-        <v>933</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>252</v>
@@ -19401,16 +19470,16 @@
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B50" s="45" t="s">
+        <v>933</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D50" s="45" t="s">
         <v>934</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D50" s="45" t="s">
-        <v>935</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>252</v>
@@ -19419,16 +19488,16 @@
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B51" s="45" t="s">
+        <v>935</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D51" s="45" t="s">
         <v>936</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D51" s="45" t="s">
-        <v>937</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>252</v>
@@ -19437,16 +19506,16 @@
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B52" s="45" t="s">
+        <v>937</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D52" s="45" t="s">
         <v>938</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D52" s="45" t="s">
-        <v>939</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>252</v>
@@ -19455,16 +19524,16 @@
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B53" s="45" t="s">
+        <v>939</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D53" s="45" t="s">
         <v>940</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D53" s="45" t="s">
-        <v>941</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>252</v>
@@ -19473,16 +19542,16 @@
     </row>
     <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B54" s="45" t="s">
+        <v>941</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D54" s="45" t="s">
         <v>942</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D54" s="45" t="s">
-        <v>943</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>252</v>
@@ -19491,16 +19560,16 @@
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B55" s="45" t="s">
+        <v>943</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D55" s="45" t="s">
         <v>944</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D55" s="45" t="s">
-        <v>945</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>252</v>
@@ -19509,16 +19578,16 @@
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B56" s="45" t="s">
+        <v>945</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D56" s="45" t="s">
         <v>946</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D56" s="45" t="s">
-        <v>947</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>252</v>
@@ -19527,16 +19596,16 @@
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B57" s="45" t="s">
+        <v>947</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D57" s="45" t="s">
         <v>948</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D57" s="45" t="s">
-        <v>949</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>252</v>
@@ -19545,16 +19614,16 @@
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B58" s="45" t="s">
+        <v>949</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D58" s="45" t="s">
         <v>950</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D58" s="45" t="s">
-        <v>951</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>252</v>
@@ -19563,16 +19632,16 @@
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B59" s="45" t="s">
+        <v>951</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D59" s="45" t="s">
         <v>952</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D59" s="45" t="s">
-        <v>953</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>252</v>
@@ -19581,16 +19650,16 @@
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B60" s="45" t="s">
+        <v>953</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D60" s="45" t="s">
         <v>954</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D60" s="45" t="s">
-        <v>955</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>252</v>
@@ -19599,16 +19668,16 @@
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B61" s="45" t="s">
+        <v>955</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D61" s="45" t="s">
         <v>956</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D61" s="45" t="s">
-        <v>957</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>252</v>
@@ -19617,16 +19686,16 @@
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B62" s="45" t="s">
+        <v>957</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D62" s="45" t="s">
         <v>958</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D62" s="45" t="s">
-        <v>959</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>252</v>
@@ -19635,16 +19704,16 @@
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B63" s="45" t="s">
+        <v>959</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D63" s="45" t="s">
         <v>960</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D63" s="45" t="s">
-        <v>961</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>252</v>
@@ -19653,16 +19722,16 @@
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B64" s="45" t="s">
+        <v>961</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D64" s="45" t="s">
         <v>962</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D64" s="45" t="s">
-        <v>963</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>252</v>
@@ -19671,16 +19740,16 @@
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B65" s="45" t="s">
+        <v>963</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D65" s="45" t="s">
         <v>964</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D65" s="45" t="s">
-        <v>965</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>252</v>
@@ -19689,16 +19758,16 @@
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B66" s="45" t="s">
+        <v>965</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D66" s="45" t="s">
         <v>966</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D66" s="45" t="s">
-        <v>967</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>252</v>
@@ -19707,16 +19776,16 @@
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B67" s="45" t="s">
+        <v>967</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D67" s="45" t="s">
         <v>968</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D67" s="45" t="s">
-        <v>969</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>252</v>
@@ -19725,16 +19794,16 @@
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D68" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>252</v>
@@ -19743,16 +19812,16 @@
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B69" s="45" t="s">
+        <v>970</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D69" s="45" t="s">
         <v>971</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D69" s="45" t="s">
-        <v>972</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>252</v>
@@ -19761,16 +19830,16 @@
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B70" s="45" t="s">
+        <v>972</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D70" s="45" t="s">
         <v>973</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D70" s="45" t="s">
-        <v>974</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>252</v>
@@ -19779,16 +19848,16 @@
     </row>
     <row r="71" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B71" s="45" t="s">
+        <v>974</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D71" s="45" t="s">
         <v>975</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D71" s="45" t="s">
-        <v>976</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>252</v>
@@ -19797,16 +19866,16 @@
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B72" s="45" t="s">
+        <v>976</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D72" s="45" t="s">
         <v>977</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D72" s="45" t="s">
-        <v>978</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>252</v>
@@ -19815,16 +19884,16 @@
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B73" s="45" t="s">
+        <v>978</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D73" s="45" t="s">
         <v>979</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D73" s="45" t="s">
-        <v>980</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>252</v>
@@ -19833,16 +19902,16 @@
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B74" s="45" t="s">
+        <v>980</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D74" s="45" t="s">
         <v>981</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D74" s="45" t="s">
-        <v>982</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>252</v>
@@ -19851,16 +19920,16 @@
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B75" s="45" t="s">
+        <v>982</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D75" s="45" t="s">
         <v>983</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D75" s="45" t="s">
-        <v>984</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>252</v>
@@ -19869,16 +19938,16 @@
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B76" s="45" t="s">
+        <v>984</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D76" s="45" t="s">
         <v>985</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D76" s="45" t="s">
-        <v>986</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>252</v>
@@ -19887,16 +19956,16 @@
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B77" s="45" t="s">
+        <v>986</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D77" s="45" t="s">
         <v>987</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D77" s="45" t="s">
-        <v>988</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>252</v>
@@ -19905,16 +19974,16 @@
     </row>
     <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B78" s="45" t="s">
+        <v>988</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D78" s="45" t="s">
         <v>989</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D78" s="45" t="s">
-        <v>990</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>252</v>
@@ -19923,16 +19992,16 @@
     </row>
     <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B79" s="45" t="s">
+        <v>990</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D79" s="45" t="s">
         <v>991</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D79" s="45" t="s">
-        <v>992</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>252</v>
@@ -19941,16 +20010,16 @@
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B80" s="45" t="s">
+        <v>992</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D80" s="45" t="s">
         <v>993</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D80" s="45" t="s">
-        <v>994</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>252</v>
@@ -19959,16 +20028,16 @@
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B81" s="45" t="s">
+        <v>994</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D81" s="45" t="s">
         <v>995</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D81" s="45" t="s">
-        <v>996</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>252</v>
@@ -19977,16 +20046,16 @@
     </row>
     <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B82" s="45" t="s">
+        <v>996</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D82" s="45" t="s">
         <v>997</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D82" s="45" t="s">
-        <v>998</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>252</v>
@@ -19995,16 +20064,16 @@
     </row>
     <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B83" s="45" t="s">
+        <v>998</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D83" s="45" t="s">
         <v>999</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D83" s="45" t="s">
-        <v>1000</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>252</v>
@@ -20013,16 +20082,16 @@
     </row>
     <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B84" s="45" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D84" s="45" t="s">
         <v>1001</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D84" s="45" t="s">
-        <v>1002</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>252</v>
@@ -20031,16 +20100,16 @@
     </row>
     <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B85" s="45" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D85" s="45" t="s">
         <v>1003</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D85" s="45" t="s">
-        <v>1004</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>252</v>
@@ -20049,16 +20118,16 @@
     </row>
     <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B86" s="45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D86" s="45" t="s">
         <v>1005</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D86" s="45" t="s">
-        <v>1006</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>252</v>
@@ -20067,16 +20136,16 @@
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B87" s="45" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D87" s="45" t="s">
         <v>1007</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D87" s="45" t="s">
-        <v>1008</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>252</v>
@@ -20085,16 +20154,16 @@
     </row>
     <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B88" s="45" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D88" s="45" t="s">
         <v>1009</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D88" s="45" t="s">
-        <v>1010</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>252</v>
@@ -20103,16 +20172,16 @@
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B89" s="45" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D89" s="45" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>252</v>
@@ -20121,16 +20190,16 @@
     </row>
     <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B90" s="45" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D90" s="45" t="s">
         <v>1012</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D90" s="45" t="s">
-        <v>1013</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>252</v>
@@ -20139,16 +20208,16 @@
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B91" s="45" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D91" s="45" t="s">
         <v>1014</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D91" s="45" t="s">
-        <v>1015</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>252</v>
@@ -20157,16 +20226,16 @@
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B92" s="45" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D92" s="45" t="s">
         <v>1016</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D92" s="45" t="s">
-        <v>1017</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>252</v>
@@ -20175,16 +20244,16 @@
     </row>
     <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B93" s="45" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D93" s="45" t="s">
         <v>1018</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D93" s="45" t="s">
-        <v>1019</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>252</v>
@@ -20193,16 +20262,16 @@
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B94" s="45" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D94" s="45" t="s">
         <v>1020</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D94" s="45" t="s">
-        <v>1021</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>252</v>
@@ -20211,16 +20280,16 @@
     </row>
     <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B95" s="45" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D95" s="45" t="s">
         <v>1022</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D95" s="45" t="s">
-        <v>1023</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>252</v>
@@ -20229,16 +20298,16 @@
     </row>
     <row r="96" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B96" s="45" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D96" s="45" t="s">
         <v>1024</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D96" s="45" t="s">
-        <v>1025</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>252</v>
@@ -20247,16 +20316,16 @@
     </row>
     <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B97" s="45" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D97" s="45" t="s">
         <v>1026</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D97" s="45" t="s">
-        <v>1027</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>252</v>
@@ -20265,16 +20334,16 @@
     </row>
     <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B98" s="45" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D98" s="45" t="s">
         <v>1028</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D98" s="45" t="s">
-        <v>1029</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>252</v>
@@ -20283,16 +20352,16 @@
     </row>
     <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B99" s="45" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D99" s="45" t="s">
         <v>1030</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D99" s="45" t="s">
-        <v>1031</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>252</v>
@@ -20301,16 +20370,16 @@
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B100" s="45" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D100" s="45" t="s">
         <v>1032</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D100" s="45" t="s">
-        <v>1033</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>252</v>
@@ -20319,16 +20388,16 @@
     </row>
     <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B101" s="45" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D101" s="45" t="s">
         <v>1034</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D101" s="45" t="s">
-        <v>1035</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>252</v>
@@ -20337,16 +20406,16 @@
     </row>
     <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B102" s="45" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D102" s="45" t="s">
         <v>1036</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D102" s="45" t="s">
-        <v>1037</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>252</v>
@@ -20355,16 +20424,16 @@
     </row>
     <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B103" s="45" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D103" s="45" t="s">
         <v>1038</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D103" s="45" t="s">
-        <v>1039</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>252</v>
@@ -20373,16 +20442,16 @@
     </row>
     <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B104" s="45" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D104" s="45" t="s">
         <v>1040</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D104" s="45" t="s">
-        <v>1041</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>252</v>
@@ -20391,16 +20460,16 @@
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B105" s="45" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D105" s="45" t="s">
         <v>1042</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D105" s="45" t="s">
-        <v>1043</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>252</v>
@@ -20409,16 +20478,16 @@
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B106" s="45" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D106" s="45" t="s">
         <v>1044</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D106" s="45" t="s">
-        <v>1045</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>252</v>
@@ -20427,16 +20496,16 @@
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B107" s="45" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D107" s="45" t="s">
         <v>1046</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D107" s="45" t="s">
-        <v>1047</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>252</v>
@@ -20445,16 +20514,16 @@
     </row>
     <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B108" s="45" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D108" s="45" t="s">
         <v>1048</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D108" s="45" t="s">
-        <v>1049</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>252</v>
@@ -20463,16 +20532,16 @@
     </row>
     <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B109" s="45" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D109" s="45" t="s">
         <v>1050</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D109" s="45" t="s">
-        <v>1051</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>252</v>
@@ -20481,16 +20550,16 @@
     </row>
     <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B110" s="45" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D110" s="45" t="s">
         <v>1052</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D110" s="45" t="s">
-        <v>1053</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>252</v>
@@ -20499,16 +20568,16 @@
     </row>
     <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B111" s="45" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D111" s="45" t="s">
         <v>1054</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D111" s="45" t="s">
-        <v>1055</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>252</v>
@@ -20517,16 +20586,16 @@
     </row>
     <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B112" s="45" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D112" s="45" t="s">
         <v>1056</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D112" s="45" t="s">
-        <v>1057</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>252</v>
@@ -20535,16 +20604,16 @@
     </row>
     <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B113" s="45" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D113" s="45" t="s">
         <v>1058</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D113" s="45" t="s">
-        <v>1059</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>252</v>
@@ -20553,7 +20622,7 @@
     </row>
     <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B114" s="45" t="s">
         <v>219</v>
@@ -20562,7 +20631,7 @@
         <v>252</v>
       </c>
       <c r="D114" s="45" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>252</v>
@@ -20571,16 +20640,16 @@
     </row>
     <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B115" s="45" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D115" s="45" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>252</v>
@@ -20589,16 +20658,16 @@
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B116" s="45" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D116" s="45" t="s">
         <v>1062</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D116" s="45" t="s">
-        <v>1063</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>252</v>
@@ -20607,16 +20676,16 @@
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B117" s="45" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D117" s="45" t="s">
         <v>1064</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D117" s="45" t="s">
-        <v>1065</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>252</v>
@@ -20625,16 +20694,16 @@
     </row>
     <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B118" s="45" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D118" s="45" t="s">
         <v>1066</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D118" s="45" t="s">
-        <v>1067</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>252</v>
@@ -20643,16 +20712,16 @@
     </row>
     <row r="119" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B119" s="45" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D119" s="45" t="s">
         <v>1068</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D119" s="45" t="s">
-        <v>1069</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>252</v>
@@ -20661,16 +20730,16 @@
     </row>
     <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B120" s="45" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D120" s="45" t="s">
         <v>1070</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D120" s="45" t="s">
-        <v>1071</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>252</v>
@@ -20679,16 +20748,16 @@
     </row>
     <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B121" s="45" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D121" s="45" t="s">
         <v>1072</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D121" s="45" t="s">
-        <v>1073</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>252</v>
@@ -20697,16 +20766,16 @@
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B122" s="45" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D122" s="45" t="s">
         <v>1074</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D122" s="45" t="s">
-        <v>1075</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>252</v>
@@ -20715,16 +20784,16 @@
     </row>
     <row r="123" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B123" s="45" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D123" s="45" t="s">
         <v>1076</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D123" s="45" t="s">
-        <v>1077</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>252</v>
@@ -20733,16 +20802,16 @@
     </row>
     <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B124" s="45" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D124" s="45" t="s">
         <v>1078</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D124" s="45" t="s">
-        <v>1079</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>252</v>
@@ -20751,16 +20820,16 @@
     </row>
     <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B125" s="45" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D125" s="45" t="s">
         <v>1080</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D125" s="45" t="s">
-        <v>1081</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>252</v>
@@ -20769,16 +20838,16 @@
     </row>
     <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B126" s="45" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D126" s="45" t="s">
         <v>1082</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D126" s="45" t="s">
-        <v>1083</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>252</v>
@@ -20787,16 +20856,16 @@
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B127" s="45" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D127" s="45" t="s">
         <v>1084</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D127" s="45" t="s">
-        <v>1085</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>252</v>
@@ -20805,16 +20874,16 @@
     </row>
     <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B128" s="45" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D128" s="45" t="s">
         <v>1086</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D128" s="45" t="s">
-        <v>1087</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>252</v>
@@ -20823,16 +20892,16 @@
     </row>
     <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B129" s="45" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D129" s="45" t="s">
         <v>1088</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D129" s="45" t="s">
-        <v>1089</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>252</v>
@@ -20841,16 +20910,16 @@
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B130" s="45" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D130" s="45" t="s">
         <v>1090</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D130" s="45" t="s">
-        <v>1091</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>252</v>
@@ -20859,16 +20928,16 @@
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B131" s="45" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D131" s="45" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>252</v>
@@ -20877,16 +20946,16 @@
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B132" s="45" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D132" s="45" t="s">
         <v>1093</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D132" s="45" t="s">
-        <v>1094</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>252</v>
@@ -20895,16 +20964,16 @@
     </row>
     <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B133" s="45" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D133" s="45" t="s">
         <v>1095</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D133" s="45" t="s">
-        <v>1096</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>252</v>
@@ -20913,16 +20982,16 @@
     </row>
     <row r="134" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B134" s="45" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D134" s="45" t="s">
         <v>1097</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D134" s="45" t="s">
-        <v>1098</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>252</v>
@@ -20931,16 +21000,16 @@
     </row>
     <row r="135" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B135" s="45" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D135" s="45" t="s">
         <v>1099</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D135" s="45" t="s">
-        <v>1100</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>252</v>
@@ -20949,7 +21018,7 @@
     </row>
     <row r="136" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B136" s="45" t="s">
         <v>220</v>
@@ -20958,7 +21027,7 @@
         <v>252</v>
       </c>
       <c r="D136" s="45" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>252</v>
@@ -20967,16 +21036,16 @@
     </row>
     <row r="137" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B137" s="45" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D137" s="45" t="s">
         <v>1102</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D137" s="45" t="s">
-        <v>1103</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>252</v>
@@ -20985,16 +21054,16 @@
     </row>
     <row r="138" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B138" s="45" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D138" s="45" t="s">
         <v>1104</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D138" s="45" t="s">
-        <v>1105</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>252</v>
@@ -21003,16 +21072,16 @@
     </row>
     <row r="139" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B139" s="45" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D139" s="45" t="s">
         <v>1106</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D139" s="45" t="s">
-        <v>1107</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>252</v>
@@ -21021,16 +21090,16 @@
     </row>
     <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B140" s="45" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D140" s="45" t="s">
         <v>1108</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D140" s="45" t="s">
-        <v>1109</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>252</v>
@@ -21039,16 +21108,16 @@
     </row>
     <row r="141" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B141" s="45" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D141" s="45" t="s">
         <v>1110</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D141" s="45" t="s">
-        <v>1111</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>252</v>
@@ -21057,16 +21126,16 @@
     </row>
     <row r="142" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B142" s="45" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D142" s="45" t="s">
         <v>1112</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D142" s="45" t="s">
-        <v>1113</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>252</v>
@@ -21075,16 +21144,16 @@
     </row>
     <row r="143" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B143" s="45" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D143" s="45" t="s">
         <v>1114</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D143" s="45" t="s">
-        <v>1115</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>252</v>
@@ -21093,16 +21162,16 @@
     </row>
     <row r="144" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B144" s="45" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D144" s="45" t="s">
         <v>1116</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D144" s="45" t="s">
-        <v>1117</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>252</v>
@@ -21111,16 +21180,16 @@
     </row>
     <row r="145" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B145" s="45" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D145" s="45" t="s">
         <v>1118</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D145" s="45" t="s">
-        <v>1119</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>252</v>
@@ -21129,16 +21198,16 @@
     </row>
     <row r="146" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B146" s="45" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D146" s="45" t="s">
         <v>1120</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D146" s="45" t="s">
-        <v>1121</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>252</v>
@@ -21147,16 +21216,16 @@
     </row>
     <row r="147" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B147" s="45" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D147" s="45" t="s">
         <v>1122</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D147" s="45" t="s">
-        <v>1123</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>252</v>
@@ -21165,16 +21234,16 @@
     </row>
     <row r="148" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B148" s="45" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D148" s="45" t="s">
         <v>1124</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D148" s="45" t="s">
-        <v>1125</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>252</v>
@@ -21183,16 +21252,16 @@
     </row>
     <row r="149" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B149" s="45" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D149" s="45" t="s">
         <v>1126</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D149" s="45" t="s">
-        <v>1127</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>252</v>
@@ -21201,16 +21270,16 @@
     </row>
     <row r="150" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B150" s="45" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D150" s="45" t="s">
         <v>1128</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D150" s="45" t="s">
-        <v>1129</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>252</v>
@@ -21219,7 +21288,7 @@
     </row>
     <row r="151" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B151" s="45" t="s">
         <v>221</v>
@@ -21228,7 +21297,7 @@
         <v>252</v>
       </c>
       <c r="D151" s="45" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>252</v>
@@ -21237,16 +21306,16 @@
     </row>
     <row r="152" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B152" s="45" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D152" s="45" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>252</v>
@@ -21255,16 +21324,16 @@
     </row>
     <row r="153" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B153" s="45" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D153" s="45" t="s">
         <v>1132</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D153" s="45" t="s">
-        <v>1133</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>252</v>
@@ -21273,16 +21342,16 @@
     </row>
     <row r="154" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B154" s="45" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D154" s="45" t="s">
         <v>1134</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D154" s="45" t="s">
-        <v>1135</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>252</v>
@@ -21291,7 +21360,7 @@
     </row>
     <row r="155" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B155" s="45" t="s">
         <v>222</v>
@@ -21300,7 +21369,7 @@
         <v>252</v>
       </c>
       <c r="D155" s="45" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>252</v>
@@ -21309,7 +21378,7 @@
     </row>
     <row r="156" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B156" s="45" t="s">
         <v>223</v>
@@ -21318,7 +21387,7 @@
         <v>252</v>
       </c>
       <c r="D156" s="45" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>252</v>
@@ -21355,664 +21424,664 @@
     </row>
     <row r="2" spans="1:2" ht="388" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B4" s="13"/>
     </row>
     <row r="5" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="289" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B21" s="13"/>
     </row>
     <row r="22" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B26" s="13"/>
     </row>
     <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="372" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B42" s="13"/>
     </row>
     <row r="43" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="404" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B48" s="45" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B49" s="13"/>
     </row>
     <row r="50" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B50" s="45" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B51" s="45" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B52" s="13"/>
     </row>
     <row r="53" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B53" s="45" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="404" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B54" s="45" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B57" s="45" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="404" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B63" s="13"/>
     </row>
     <row r="64" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B76" s="45" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B80" s="45" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B81" s="45" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B82" s="45" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B83" s="45" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B84" s="45" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B85" s="45" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B86" s="45" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -22075,18 +22144,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B5" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B6" t="s">
         <v>1139</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1140</v>
       </c>
     </row>
   </sheetData>
@@ -22116,7 +22185,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>215</v>
@@ -22128,30 +22197,30 @@
         <v>232</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="F1" s="33" t="s">
         <v>247</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E2" t="s">
         <v>1494</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1495</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>1496</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1497</v>
       </c>
     </row>
   </sheetData>
@@ -22180,7 +22249,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>314</v>
@@ -22209,16 +22278,16 @@
         <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E2" t="s">
         <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="G2" t="s">
         <v>398</v>
@@ -22235,16 +22304,16 @@
         <v>256</v>
       </c>
       <c r="D3" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E3" t="s">
         <v>257</v>
       </c>
       <c r="F3" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="G3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -22255,19 +22324,19 @@
         <v>123456789</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1544</v>
+      </c>
+      <c r="G4" t="s">
         <v>501</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>1533</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1545</v>
-      </c>
-      <c r="G4" t="s">
-        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -22295,7 +22364,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -22303,7 +22372,7 @@
         <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -22343,21 +22412,21 @@
         <v>21</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C2" t="s">
         <v>1477</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1478</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -22389,169 +22458,169 @@
       <c r="A1" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="72" t="s">
-        <v>513</v>
-      </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="B3" s="74" t="s">
+        <v>512</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>1535</v>
-      </c>
-      <c r="B7" s="73" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B7" s="71" t="s">
         <v>410</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="B9" s="71" t="s">
         <v>506</v>
       </c>
-      <c r="B9" s="73" t="s">
-        <v>507</v>
-      </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="B10" s="71" t="s">
         <v>508</v>
       </c>
-      <c r="B10" s="73" t="s">
-        <v>509</v>
-      </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
     </row>
     <row r="12" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="74" t="s">
-        <v>1594</v>
-      </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
+      <c r="B12" s="72" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -22643,6 +22712,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B13:F13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
@@ -22652,11 +22726,6 @@
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B13:F13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22683,7 +22752,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>215</v>
@@ -22695,24 +22764,24 @@
         <v>232</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>505</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
   </sheetData>
@@ -22721,26 +22790,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -22941,32 +22990,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22983,4 +23027,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>